--- a/excels/top.xlsx
+++ b/excels/top.xlsx
@@ -1,40 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\register_print\workspace\RegisterPrinter\excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1161413D-D753-4FCF-9C89-4B29A9FD2E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Top" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Top_Module</t>
+  </si>
+  <si>
+    <t>Address Bit Width</t>
+  </si>
+  <si>
+    <t>Data Bit Width</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>xinr</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Block Instance Name</t>
+  </si>
+  <si>
+    <t>Block Type</t>
+  </si>
+  <si>
+    <t>Start Address</t>
+  </si>
+  <si>
+    <t>Block Size</t>
+  </si>
+  <si>
+    <t>NewBlockInstance</t>
+  </si>
+  <si>
+    <t>block0</t>
+  </si>
+  <si>
+    <t>0x0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -42,85 +136,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,100 +494,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="58.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Top</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Top_Module</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AddrWidth</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DataWidth</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Author</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>xinr</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Version</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1.0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NewBlockInstance</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>block0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excels/top.xlsx
+++ b/excels/top.xlsx
@@ -1,116 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\register_print\workspace\RegisterPrinter\excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1161413D-D753-4FCF-9C89-4B29A9FD2E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Top" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Top'!$A$7:$F$7</definedName>
+  </definedNames>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>Top_Module</t>
-  </si>
-  <si>
-    <t>Address Bit Width</t>
-  </si>
-  <si>
-    <t>Data Bit Width</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>xinr</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>Block Instance Name</t>
-  </si>
-  <si>
-    <t>Block Type</t>
-  </si>
-  <si>
-    <t>Start Address</t>
-  </si>
-  <si>
-    <t>Block Size</t>
-  </si>
-  <si>
-    <t>NewBlockInstance</t>
-  </si>
-  <si>
-    <t>block0</t>
-  </si>
-  <si>
-    <t>0x0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -153,16 +94,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="-0.24994659260841701"/>
+        <color theme="4" tint="-0.249946592608417"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="-0.24994659260841701"/>
+        <color theme="4" tint="-0.249946592608417"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="-0.24994659260841701"/>
+        <color theme="4" tint="-0.249946592608417"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="-0.24994659260841701"/>
+        <color theme="4" tint="-0.249946592608417"/>
       </bottom>
       <diagonal/>
     </border>
@@ -170,43 +111,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -494,134 +500,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>test_ral_top</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Address Bit Width</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Data Bit Width</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Author</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>xinr</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>1.0.0</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Block Instance Name</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Block Type</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Start Address</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Block Size</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Address Bit Width</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Data Bit Width</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>block0_instance</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>block0</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>0xfff</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="7" t="n">
         <v>32</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>block1_instance</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>block1</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>0x1fff</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>0xfff</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>block2_instance</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>block0</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>0x2fff</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>0xfff</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <autoFilter ref="A7:F7"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>